--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Woojin Jaegal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED94C4-75B9-4EF5-B4D9-89B46C81AC46}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D15E0-DBB3-435E-8AAC-E553D7AD60ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{FA41352B-C4B0-412D-9A7C-94034EC26637}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>자체 QA 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 격투 때 도망친다 버튼이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화 혹은 음영처리 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,8 +290,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,7 +300,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BCBA93-91AE-4D22-BFAB-65637BA80E2E}">
-  <dimension ref="B2:T23"/>
+  <dimension ref="B2:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -721,14 +732,14 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20">
@@ -750,12 +761,12 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20">
@@ -777,14 +788,14 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20">
@@ -806,12 +817,12 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20">
@@ -833,14 +844,14 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20">
@@ -943,14 +954,14 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="12" t="s">
+      <c r="N17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20">
@@ -1011,7 +1022,7 @@
       <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1041,18 +1052,18 @@
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -1068,18 +1079,18 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -1095,18 +1106,18 @@
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -1115,20 +1126,52 @@
       <c r="S23" s="10"/>
       <c r="T23" s="1"/>
     </row>
+    <row r="24" spans="2:20">
+      <c r="B24" s="8">
+        <v>16</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
+  <mergeCells count="36">
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="N8:S8"/>
@@ -1138,19 +1181,18 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:S19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D15E0-DBB3-435E-8AAC-E553D7AD60ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF57A5-3CFC-4A33-B945-EE4C19FC76AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{FA41352B-C4B0-412D-9A7C-94034EC26637}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>비활성화 혹은 음영처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,20 +294,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,18 +626,18 @@
   <dimension ref="B2:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -644,10 +648,10 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -656,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -665,7 +669,7 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -674,7 +678,7 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -689,26 +693,26 @@
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="2" t="s">
         <v>17</v>
       </c>
@@ -720,26 +724,26 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20">
@@ -749,24 +753,24 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20">
@@ -776,26 +780,26 @@
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="9" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20">
@@ -805,24 +809,24 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20">
@@ -832,26 +836,26 @@
       <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="9" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20">
@@ -861,24 +865,24 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20">
@@ -888,24 +892,24 @@
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20">
@@ -915,24 +919,24 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20">
@@ -942,26 +946,26 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="9" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20">
@@ -971,24 +975,24 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20">
@@ -998,51 +1002,51 @@
       <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20">
@@ -1052,25 +1056,27 @@
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="1"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="8">
@@ -1079,24 +1085,24 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20">
@@ -1106,24 +1112,24 @@
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20">
@@ -1133,45 +1139,42 @@
       <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="10" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="N8:S8"/>
@@ -1181,18 +1184,21 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBF57A5-3CFC-4A33-B945-EE4C19FC76AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857C425-5059-45DE-95BB-9419ACED652C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{FA41352B-C4B0-412D-9A7C-94034EC26637}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>수정완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 씬 끝나고 월드맵으로 이동하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 플래쉬가 터지지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -260,13 +272,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,11 +319,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,8 +328,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,21 +669,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BCBA93-91AE-4D22-BFAB-65637BA80E2E}">
-  <dimension ref="B2:T24"/>
+  <dimension ref="B2:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -648,10 +694,10 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -660,7 +706,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="F4" s="12"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -669,7 +715,7 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="F5" s="12"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -678,7 +724,7 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="F6" s="12"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -690,29 +736,29 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
       <c r="T8" s="2" t="s">
         <v>17</v>
       </c>
@@ -721,359 +767,359 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="15">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="13" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="13" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="17">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="13" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="18">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="8">
         <v>8</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="8">
         <v>9</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="19">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="13" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="8">
         <v>10</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="8">
         <v>11</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="16">
         <v>4</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="20">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="8">
         <v>13</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="18">
         <v>3</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
       <c r="T21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1082,99 +1128,189 @@
       <c r="B22" s="8">
         <v>14</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="16">
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="8">
         <v>15</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="18">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="8">
         <v>16</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="15">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11" t="s">
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
       <c r="T24" s="1"/>
     </row>
+    <row r="25" spans="2:20">
+      <c r="B25" s="8">
+        <v>17</v>
+      </c>
+      <c r="C25" s="12">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="2:20">
+      <c r="B26" s="8">
+        <v>18</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="2:20">
+      <c r="B27" s="8">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
+  <mergeCells count="42">
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="N8:S8"/>
@@ -1184,21 +1320,18 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:S19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F857C425-5059-45DE-95BB-9419ACED652C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119CDE0B-B8EC-4378-92D8-D9707C99FEAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{FA41352B-C4B0-412D-9A7C-94034EC26637}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,10 @@
   </si>
   <si>
     <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시 7 기준으로 BGM이 간혈적으로 끊어짐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +323,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -328,31 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,21 +652,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BCBA93-91AE-4D22-BFAB-65637BA80E2E}">
-  <dimension ref="B2:T27"/>
+  <dimension ref="B2:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+      <selection activeCell="N21" sqref="N21:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -694,10 +677,10 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -706,7 +689,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="F4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -715,7 +698,7 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="F5" s="11"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -724,7 +707,7 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="F6" s="11"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -736,29 +719,29 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="2" t="s">
         <v>17</v>
       </c>
@@ -767,359 +750,359 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="1">
         <v>6</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="1">
         <v>7</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="8">
         <v>8</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20">
       <c r="B17" s="8">
         <v>9</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20">
       <c r="B18" s="8">
         <v>10</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="8">
         <v>11</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20">
       <c r="B21" s="8">
         <v>13</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
       <c r="T21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1128,189 +1111,209 @@
       <c r="B22" s="8">
         <v>14</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="8">
         <v>15</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="8">
         <v>16</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20">
       <c r="B25" s="8">
         <v>17</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="8">
         <v>18</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="8">
         <v>19</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
       <c r="T27" s="1"/>
     </row>
+    <row r="28" spans="2:20">
+      <c r="B28" s="8">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="D24:M24"/>
-    <mergeCell ref="N24:S24"/>
-    <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="N20:S20"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N22:S22"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="D20:M20"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
+  <mergeCells count="44">
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="N8:S8"/>
@@ -1320,18 +1323,27 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:S19"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="N20:S20"/>
+    <mergeCell ref="N21:S21"/>
+    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="D20:M20"/>
+    <mergeCell ref="D24:M24"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="D21:M21"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N27:S27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\QA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdwltn\Documents\GitHub\RevoltDay\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119CDE0B-B8EC-4378-92D8-D9707C99FEAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{FA41352B-C4B0-412D-9A7C-94034EC26637}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,31 +160,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>이벤트 씬 끝나고 월드맵으로 이동하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 플래쉬가 터지지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시 7 기준으로 BGM이 간혈적으로 끊어짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>수정완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 씬 끝나고 월드맵으로 이동하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 플래쉬가 터지지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤럭시 7 기준으로 BGM이 간혈적으로 끊어짐.</t>
+    <t>무엇?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,8 +211,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +263,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -290,12 +306,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -327,6 +346,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -335,11 +363,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,22 +680,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BCBA93-91AE-4D22-BFAB-65637BA80E2E}">
-  <dimension ref="B2:T28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:S21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -677,10 +706,10 @@
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -689,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="F4" s="12"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -698,7 +727,7 @@
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="F5" s="12"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -707,7 +736,7 @@
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="F6" s="12"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -722,27 +751,27 @@
       <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="2" t="s">
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
@@ -753,27 +782,29 @@
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="1"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="1">
@@ -782,25 +813,25 @@
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="1"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="1">
@@ -809,27 +840,27 @@
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="1"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="1">
@@ -838,25 +869,25 @@
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="1"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="1">
@@ -865,27 +896,29 @@
       <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="1"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="1">
@@ -894,25 +927,27 @@
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="1"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="1">
@@ -921,25 +956,27 @@
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="1"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="8">
@@ -948,372 +985,380 @@
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="2:20">
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
       <c r="B17" s="8">
         <v>9</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="2:20">
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="2:21">
       <c r="B18" s="8">
         <v>10</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="2:20">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="2:21">
       <c r="B19" s="8">
         <v>11</v>
       </c>
       <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="2:20">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="10"/>
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21">
       <c r="B20" s="8">
         <v>12</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" spans="2:20">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
       <c r="B21" s="8">
         <v>13</v>
       </c>
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20">
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21">
       <c r="B22" s="8">
         <v>14</v>
       </c>
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" spans="2:20">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="2:21">
       <c r="B23" s="8">
         <v>15</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" spans="2:20">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
       <c r="B24" s="8">
         <v>16</v>
       </c>
       <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="2:20">
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="10"/>
+    </row>
+    <row r="25" spans="2:21">
       <c r="B25" s="8">
         <v>17</v>
       </c>
       <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" spans="2:20">
+      <c r="D25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="10"/>
+    </row>
+    <row r="26" spans="2:21">
       <c r="B26" s="8">
         <v>18</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" spans="2:20">
+      <c r="D26" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="10"/>
+    </row>
+    <row r="27" spans="2:21">
       <c r="B27" s="8">
         <v>19</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" spans="2:20">
+      <c r="D27" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="10"/>
+    </row>
+    <row r="28" spans="2:21">
       <c r="B28" s="8">
         <v>20</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="1"/>
+      <c r="D28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="N17:S17"/>
-    <mergeCell ref="D17:M17"/>
-    <mergeCell ref="D18:M18"/>
-    <mergeCell ref="N18:S18"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="N19:S19"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="D15:M15"/>
-    <mergeCell ref="D16:M16"/>
-    <mergeCell ref="N15:S15"/>
-    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="N25:S25"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="D22:M22"/>
+    <mergeCell ref="D23:M23"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="D10:M10"/>
     <mergeCell ref="D12:M12"/>
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="N8:S8"/>
@@ -1323,11 +1368,20 @@
     <mergeCell ref="N12:S12"/>
     <mergeCell ref="N13:S13"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="D10:M10"/>
+    <mergeCell ref="D14:M14"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D16:M16"/>
+    <mergeCell ref="N15:S15"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="N17:S17"/>
+    <mergeCell ref="D17:M17"/>
+    <mergeCell ref="D18:M18"/>
+    <mergeCell ref="N18:S18"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="N19:S19"/>
     <mergeCell ref="N20:S20"/>
     <mergeCell ref="N21:S21"/>
     <mergeCell ref="N22:S22"/>
@@ -1336,14 +1390,6 @@
     <mergeCell ref="D24:M24"/>
     <mergeCell ref="N24:S24"/>
     <mergeCell ref="D21:M21"/>
-    <mergeCell ref="D22:M22"/>
-    <mergeCell ref="D23:M23"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="N25:S25"/>
-    <mergeCell ref="N26:S26"/>
-    <mergeCell ref="N27:S27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/QA 리스트.xlsx
+++ b/QA/QA 리스트.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjdwltn\Documents\GitHub\RevoltDay\QA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>치명도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,74 +115,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>일반 이슈에서 메인 사건까지 불러와진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월드맵 이동 행동력이 클릭도 안했는데 맘대로 UI 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상점 캐릭터 이미지를 잘못 넣었음. 캐릭터 프리팹에서 변경으로 커밋했음. 교체 요망 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리가 넘어갈 때 포인터랑 그림이 그대로 남아있음. 추리 배경도 그대로 나타남. 추리3에서 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 화면 들어갈 때 곧바로 추리 결과를 확인하시겠습니까? 팝업 출력(아무것도 체크하지 않아도)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자체 QA 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 격투 때 도망친다 버튼이 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비활성화 혹은 음영처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 씬 끝나고 월드맵으로 이동하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 플래쉬가 터지지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갤럭시 7 기준으로 BGM이 간혈적으로 끊어짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급 이슈 아이콘 계속 떠있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대화 와이어 프레임 위로는 상반신(복부 중간) 위로 보이게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 이슈에서 메인 사건까지 불러와진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월드맵 이동 행동력이 클릭도 안했는데 맘대로 UI 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>긴급 이슈 아이콘 계속 떠있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">상점 캐릭터 이미지를 잘못 넣었음. 캐릭터 프리팹에서 변경으로 커밋했음. 교체 요망 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리가 넘어갈 때 포인터랑 그림이 그대로 남아있음. 추리 배경도 그대로 나타남. 추리3에서 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 화면 들어갈 때 곧바로 추리 결과를 확인하시겠습니까? 팝업 출력(아무것도 체크하지 않아도)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자체 QA 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 격투 때 도망친다 버튼이 존재함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비활성화 혹은 음영처리 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 씬 끝나고 월드맵으로 이동하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 플래쉬가 터지지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씬 종료후 격투나 추리가 스킵되는 경우가 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갤럭시 7 기준으로 BGM이 간혈적으로 끊어짐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무엇?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -354,6 +345,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -361,9 +355,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +418,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -479,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -673,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,19 +674,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:M19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="2" spans="2:20">
-      <c r="B2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="15" t="s">
+    <row r="2" spans="2:21">
+      <c r="B2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1">
@@ -705,11 +696,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="F3" s="15"/>
+    <row r="3" spans="2:21">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="1">
         <v>2</v>
       </c>
@@ -717,8 +708,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
-      <c r="F4" s="15"/>
+    <row r="4" spans="2:21">
+      <c r="F4" s="16"/>
       <c r="G4" s="1">
         <v>3</v>
       </c>
@@ -726,8 +717,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
-      <c r="F5" s="15"/>
+    <row r="5" spans="2:21">
+      <c r="F5" s="16"/>
       <c r="G5" s="1">
         <v>4</v>
       </c>
@@ -735,8 +726,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
-      <c r="F6" s="15"/>
+    <row r="6" spans="2:21">
+      <c r="F6" s="16"/>
       <c r="G6" s="1">
         <v>5</v>
       </c>
@@ -744,267 +735,278 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:21">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
       <c r="T8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:21">
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
       <c r="T10" s="10"/>
-    </row>
-    <row r="11" spans="2:20">
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>4</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="2:20">
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="1">
         <v>5</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="1">
         <v>6</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="1">
         <v>7</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="8">
         <v>8</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="16" t="s">
-        <v>36</v>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -1014,27 +1016,29 @@
       <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="10"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="8">
@@ -1043,25 +1047,30 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="10"/>
+      <c r="D18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="8">
@@ -1070,27 +1079,27 @@
       <c r="C19" s="4">
         <v>4</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="10"/>
-      <c r="U19" t="s">
-        <v>37</v>
+      <c r="U19">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:21">
@@ -1100,26 +1109,26 @@
       <c r="C20" s="12">
         <v>2</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="16" t="s">
-        <v>36</v>
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:21">
@@ -1129,26 +1138,26 @@
       <c r="C21" s="5">
         <v>3</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="16" t="s">
-        <v>36</v>
+      <c r="D21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -1158,24 +1167,24 @@
       <c r="C22" s="4">
         <v>4</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="10"/>
     </row>
     <row r="23" spans="2:21">
@@ -1185,26 +1194,26 @@
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="16" t="s">
-        <v>36</v>
+      <c r="D23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:21">
@@ -1214,27 +1223,29 @@
       <c r="C24" s="6">
         <v>2</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="10"/>
+      <c r="D24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="8">
@@ -1243,24 +1254,24 @@
       <c r="C25" s="5">
         <v>3</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="D25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="10"/>
     </row>
     <row r="26" spans="2:21">
@@ -1270,25 +1281,27 @@
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="10"/>
+      <c r="D26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="8">
@@ -1297,24 +1310,24 @@
       <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
+      <c r="D27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="10"/>
     </row>
     <row r="28" spans="2:21">
@@ -1324,24 +1337,24 @@
       <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
+      <c r="D28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="10"/>
     </row>
   </sheetData>
